--- a/blocs/incentives/results/IP.xlsx
+++ b/blocs/incentives/results/IP.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EQ13"/>
+  <dimension ref="A1:ES13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,206 +521,208 @@
       <c r="Y1" s="1" t="n"/>
       <c r="Z1" s="1" t="n"/>
       <c r="AA1" s="1" t="n"/>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Incentive 1</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="n"/>
-      <c r="AD1" s="1" t="n"/>
       <c r="AE1" s="1" t="n"/>
       <c r="AF1" s="1" t="n"/>
       <c r="AG1" s="1" t="n"/>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="n"/>
+      <c r="AI1" s="1" t="n"/>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Incentive 2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="n"/>
-      <c r="AJ1" s="1" t="n"/>
       <c r="AK1" s="1" t="n"/>
       <c r="AL1" s="1" t="n"/>
       <c r="AM1" s="1" t="n"/>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Incentive 3</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="n"/>
-      <c r="AP1" s="1" t="n"/>
       <c r="AQ1" s="1" t="n"/>
       <c r="AR1" s="1" t="n"/>
       <c r="AS1" s="1" t="n"/>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="n"/>
+      <c r="AU1" s="1" t="n"/>
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Incentive 4</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="n"/>
-      <c r="AV1" s="1" t="n"/>
       <c r="AW1" s="1" t="n"/>
       <c r="AX1" s="1" t="n"/>
       <c r="AY1" s="1" t="n"/>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="n"/>
+      <c r="BA1" s="1" t="n"/>
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Incentive 5</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="n"/>
-      <c r="BB1" s="1" t="n"/>
       <c r="BC1" s="1" t="n"/>
       <c r="BD1" s="1" t="n"/>
       <c r="BE1" s="1" t="n"/>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="n"/>
+      <c r="BG1" s="1" t="n"/>
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>Incentive 6</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="n"/>
-      <c r="BH1" s="1" t="n"/>
       <c r="BI1" s="1" t="n"/>
       <c r="BJ1" s="1" t="n"/>
       <c r="BK1" s="1" t="n"/>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="n"/>
+      <c r="BM1" s="1" t="n"/>
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Incentive 7</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="n"/>
-      <c r="BN1" s="1" t="n"/>
       <c r="BO1" s="1" t="n"/>
       <c r="BP1" s="1" t="n"/>
       <c r="BQ1" s="1" t="n"/>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="n"/>
+      <c r="BS1" s="1" t="n"/>
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>Incentive 8</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="n"/>
-      <c r="BT1" s="1" t="n"/>
       <c r="BU1" s="1" t="n"/>
       <c r="BV1" s="1" t="n"/>
       <c r="BW1" s="1" t="n"/>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="n"/>
+      <c r="BY1" s="1" t="n"/>
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>Incentive 9</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="n"/>
-      <c r="BZ1" s="1" t="n"/>
       <c r="CA1" s="1" t="n"/>
       <c r="CB1" s="1" t="n"/>
       <c r="CC1" s="1" t="n"/>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="n"/>
+      <c r="CE1" s="1" t="n"/>
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>Incentive 10</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="n"/>
-      <c r="CF1" s="1" t="n"/>
       <c r="CG1" s="1" t="n"/>
       <c r="CH1" s="1" t="n"/>
       <c r="CI1" s="1" t="n"/>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="n"/>
+      <c r="CK1" s="1" t="n"/>
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>Incentive 11</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="n"/>
-      <c r="CL1" s="1" t="n"/>
       <c r="CM1" s="1" t="n"/>
       <c r="CN1" s="1" t="n"/>
       <c r="CO1" s="1" t="n"/>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="n"/>
+      <c r="CQ1" s="1" t="n"/>
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>Incentive 12</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="n"/>
-      <c r="CR1" s="1" t="n"/>
       <c r="CS1" s="1" t="n"/>
       <c r="CT1" s="1" t="n"/>
       <c r="CU1" s="1" t="n"/>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="n"/>
+      <c r="CW1" s="1" t="n"/>
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>Incentive 13</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="n"/>
-      <c r="CX1" s="1" t="n"/>
       <c r="CY1" s="1" t="n"/>
       <c r="CZ1" s="1" t="n"/>
       <c r="DA1" s="1" t="n"/>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="n"/>
+      <c r="DC1" s="1" t="n"/>
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>Incentive 14</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="n"/>
-      <c r="DD1" s="1" t="n"/>
       <c r="DE1" s="1" t="n"/>
       <c r="DF1" s="1" t="n"/>
       <c r="DG1" s="1" t="n"/>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="n"/>
+      <c r="DI1" s="1" t="n"/>
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>Incentive 15</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="n"/>
-      <c r="DJ1" s="1" t="n"/>
       <c r="DK1" s="1" t="n"/>
       <c r="DL1" s="1" t="n"/>
       <c r="DM1" s="1" t="n"/>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="n"/>
+      <c r="DO1" s="1" t="n"/>
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>Incentive 16</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="n"/>
-      <c r="DP1" s="1" t="n"/>
       <c r="DQ1" s="1" t="n"/>
       <c r="DR1" s="1" t="n"/>
       <c r="DS1" s="1" t="n"/>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="n"/>
+      <c r="DU1" s="1" t="n"/>
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>Incentive 17</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="n"/>
-      <c r="DV1" s="1" t="n"/>
       <c r="DW1" s="1" t="n"/>
       <c r="DX1" s="1" t="n"/>
       <c r="DY1" s="1" t="n"/>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="n"/>
+      <c r="EA1" s="1" t="n"/>
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>Incentive 18</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="n"/>
-      <c r="EB1" s="1" t="n"/>
       <c r="EC1" s="1" t="n"/>
       <c r="ED1" s="1" t="n"/>
       <c r="EE1" s="1" t="n"/>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="n"/>
+      <c r="EG1" s="1" t="n"/>
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>Incentive 19</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="n"/>
-      <c r="EH1" s="1" t="n"/>
       <c r="EI1" s="1" t="n"/>
       <c r="EJ1" s="1" t="n"/>
       <c r="EK1" s="1" t="n"/>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="n"/>
+      <c r="EM1" s="1" t="n"/>
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>Incentive 20</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="n"/>
-      <c r="EN1" s="1" t="n"/>
       <c r="EO1" s="1" t="n"/>
       <c r="EP1" s="1" t="n"/>
       <c r="EQ1" s="1" t="n"/>
+      <c r="ER1" s="1" t="n"/>
+      <c r="ES1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -855,605 +857,615 @@
       </c>
       <c r="AA2" s="1" t="inlineStr">
         <is>
+          <t>Sales Tax Contribution to MFSP [%]</t>
+        </is>
+      </c>
+      <c r="AB2" s="1" t="inlineStr">
+        <is>
           <t>Ethanol production cost [USD/gal]</t>
         </is>
       </c>
-      <c r="AB2" s="1" t="inlineStr">
+      <c r="AC2" s="1" t="inlineStr">
+        <is>
+          <t>Capital Investment Contribution to MFSP [%]</t>
+        </is>
+      </c>
+      <c r="AD2" s="1" t="inlineStr">
         <is>
           <t>MFSP [USD/gal]</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
+      <c r="AE2" s="1" t="inlineStr">
         <is>
           <t>MFSP Reduction [USD/gal]</t>
         </is>
       </c>
-      <c r="AD2" s="1" t="inlineStr">
+      <c r="AF2" s="1" t="inlineStr">
         <is>
           <t>Exemptions [USD]</t>
         </is>
       </c>
-      <c r="AE2" s="1" t="inlineStr">
+      <c r="AG2" s="1" t="inlineStr">
         <is>
           <t>Deductions [USD]</t>
         </is>
       </c>
-      <c r="AF2" s="1" t="inlineStr">
+      <c r="AH2" s="1" t="inlineStr">
         <is>
           <t>Credits [USD]</t>
         </is>
       </c>
-      <c r="AG2" s="1" t="inlineStr">
+      <c r="AI2" s="1" t="inlineStr">
         <is>
           <t>Refunds [USD]</t>
         </is>
       </c>
-      <c r="AH2" s="1" t="inlineStr">
+      <c r="AJ2" s="1" t="inlineStr">
         <is>
           <t>MFSP [USD/gal]</t>
         </is>
       </c>
-      <c r="AI2" s="1" t="inlineStr">
+      <c r="AK2" s="1" t="inlineStr">
         <is>
           <t>MFSP Reduction [USD/gal]</t>
         </is>
       </c>
-      <c r="AJ2" s="1" t="inlineStr">
+      <c r="AL2" s="1" t="inlineStr">
         <is>
           <t>Exemptions [USD]</t>
         </is>
       </c>
-      <c r="AK2" s="1" t="inlineStr">
+      <c r="AM2" s="1" t="inlineStr">
         <is>
           <t>Deductions [USD]</t>
         </is>
       </c>
-      <c r="AL2" s="1" t="inlineStr">
+      <c r="AN2" s="1" t="inlineStr">
         <is>
           <t>Credits [USD]</t>
         </is>
       </c>
-      <c r="AM2" s="1" t="inlineStr">
+      <c r="AO2" s="1" t="inlineStr">
         <is>
           <t>Refunds [USD]</t>
         </is>
       </c>
-      <c r="AN2" s="1" t="inlineStr">
+      <c r="AP2" s="1" t="inlineStr">
         <is>
           <t>MFSP [USD/gal]</t>
         </is>
       </c>
-      <c r="AO2" s="1" t="inlineStr">
+      <c r="AQ2" s="1" t="inlineStr">
         <is>
           <t>MFSP Reduction [USD/gal]</t>
         </is>
       </c>
-      <c r="AP2" s="1" t="inlineStr">
+      <c r="AR2" s="1" t="inlineStr">
         <is>
           <t>Exemptions [USD]</t>
         </is>
       </c>
-      <c r="AQ2" s="1" t="inlineStr">
+      <c r="AS2" s="1" t="inlineStr">
         <is>
           <t>Deductions [USD]</t>
         </is>
       </c>
-      <c r="AR2" s="1" t="inlineStr">
+      <c r="AT2" s="1" t="inlineStr">
         <is>
           <t>Credits [USD]</t>
         </is>
       </c>
-      <c r="AS2" s="1" t="inlineStr">
+      <c r="AU2" s="1" t="inlineStr">
         <is>
           <t>Refunds [USD]</t>
         </is>
       </c>
-      <c r="AT2" s="1" t="inlineStr">
+      <c r="AV2" s="1" t="inlineStr">
         <is>
           <t>MFSP [USD/gal]</t>
         </is>
       </c>
-      <c r="AU2" s="1" t="inlineStr">
+      <c r="AW2" s="1" t="inlineStr">
         <is>
           <t>MFSP Reduction [USD/gal]</t>
         </is>
       </c>
-      <c r="AV2" s="1" t="inlineStr">
+      <c r="AX2" s="1" t="inlineStr">
         <is>
           <t>Exemptions [USD]</t>
         </is>
       </c>
-      <c r="AW2" s="1" t="inlineStr">
+      <c r="AY2" s="1" t="inlineStr">
         <is>
           <t>Deductions [USD]</t>
         </is>
       </c>
-      <c r="AX2" s="1" t="inlineStr">
+      <c r="AZ2" s="1" t="inlineStr">
         <is>
           <t>Credits [USD]</t>
         </is>
       </c>
-      <c r="AY2" s="1" t="inlineStr">
+      <c r="BA2" s="1" t="inlineStr">
         <is>
           <t>Refunds [USD]</t>
         </is>
       </c>
-      <c r="AZ2" s="1" t="inlineStr">
+      <c r="BB2" s="1" t="inlineStr">
         <is>
           <t>MFSP [USD/gal]</t>
         </is>
       </c>
-      <c r="BA2" s="1" t="inlineStr">
+      <c r="BC2" s="1" t="inlineStr">
         <is>
           <t>MFSP Reduction [USD/gal]</t>
         </is>
       </c>
-      <c r="BB2" s="1" t="inlineStr">
+      <c r="BD2" s="1" t="inlineStr">
         <is>
           <t>Exemptions [USD]</t>
         </is>
       </c>
-      <c r="BC2" s="1" t="inlineStr">
+      <c r="BE2" s="1" t="inlineStr">
         <is>
           <t>Deductions [USD]</t>
         </is>
       </c>
-      <c r="BD2" s="1" t="inlineStr">
+      <c r="BF2" s="1" t="inlineStr">
         <is>
           <t>Credits [USD]</t>
         </is>
       </c>
-      <c r="BE2" s="1" t="inlineStr">
+      <c r="BG2" s="1" t="inlineStr">
         <is>
           <t>Refunds [USD]</t>
         </is>
       </c>
-      <c r="BF2" s="1" t="inlineStr">
+      <c r="BH2" s="1" t="inlineStr">
         <is>
           <t>MFSP [USD/gal]</t>
         </is>
       </c>
-      <c r="BG2" s="1" t="inlineStr">
+      <c r="BI2" s="1" t="inlineStr">
         <is>
           <t>MFSP Reduction [USD/gal]</t>
         </is>
       </c>
-      <c r="BH2" s="1" t="inlineStr">
+      <c r="BJ2" s="1" t="inlineStr">
         <is>
           <t>Exemptions [USD]</t>
         </is>
       </c>
-      <c r="BI2" s="1" t="inlineStr">
+      <c r="BK2" s="1" t="inlineStr">
         <is>
           <t>Deductions [USD]</t>
         </is>
       </c>
-      <c r="BJ2" s="1" t="inlineStr">
+      <c r="BL2" s="1" t="inlineStr">
         <is>
           <t>Credits [USD]</t>
         </is>
       </c>
-      <c r="BK2" s="1" t="inlineStr">
+      <c r="BM2" s="1" t="inlineStr">
         <is>
           <t>Refunds [USD]</t>
         </is>
       </c>
-      <c r="BL2" s="1" t="inlineStr">
+      <c r="BN2" s="1" t="inlineStr">
         <is>
           <t>MFSP [USD/gal]</t>
         </is>
       </c>
-      <c r="BM2" s="1" t="inlineStr">
+      <c r="BO2" s="1" t="inlineStr">
         <is>
           <t>MFSP Reduction [USD/gal]</t>
         </is>
       </c>
-      <c r="BN2" s="1" t="inlineStr">
+      <c r="BP2" s="1" t="inlineStr">
         <is>
           <t>Exemptions [USD]</t>
         </is>
       </c>
-      <c r="BO2" s="1" t="inlineStr">
+      <c r="BQ2" s="1" t="inlineStr">
         <is>
           <t>Deductions [USD]</t>
         </is>
       </c>
-      <c r="BP2" s="1" t="inlineStr">
+      <c r="BR2" s="1" t="inlineStr">
         <is>
           <t>Credits [USD]</t>
         </is>
       </c>
-      <c r="BQ2" s="1" t="inlineStr">
+      <c r="BS2" s="1" t="inlineStr">
         <is>
           <t>Refunds [USD]</t>
         </is>
       </c>
-      <c r="BR2" s="1" t="inlineStr">
+      <c r="BT2" s="1" t="inlineStr">
         <is>
           <t>MFSP [USD/gal]</t>
         </is>
       </c>
-      <c r="BS2" s="1" t="inlineStr">
+      <c r="BU2" s="1" t="inlineStr">
         <is>
           <t>MFSP Reduction [USD/gal]</t>
         </is>
       </c>
-      <c r="BT2" s="1" t="inlineStr">
+      <c r="BV2" s="1" t="inlineStr">
         <is>
           <t>Exemptions [USD]</t>
         </is>
       </c>
-      <c r="BU2" s="1" t="inlineStr">
+      <c r="BW2" s="1" t="inlineStr">
         <is>
           <t>Deductions [USD]</t>
         </is>
       </c>
-      <c r="BV2" s="1" t="inlineStr">
+      <c r="BX2" s="1" t="inlineStr">
         <is>
           <t>Credits [USD]</t>
         </is>
       </c>
-      <c r="BW2" s="1" t="inlineStr">
+      <c r="BY2" s="1" t="inlineStr">
         <is>
           <t>Refunds [USD]</t>
         </is>
       </c>
-      <c r="BX2" s="1" t="inlineStr">
+      <c r="BZ2" s="1" t="inlineStr">
         <is>
           <t>MFSP [USD/gal]</t>
         </is>
       </c>
-      <c r="BY2" s="1" t="inlineStr">
+      <c r="CA2" s="1" t="inlineStr">
         <is>
           <t>MFSP Reduction [USD/gal]</t>
         </is>
       </c>
-      <c r="BZ2" s="1" t="inlineStr">
+      <c r="CB2" s="1" t="inlineStr">
         <is>
           <t>Exemptions [USD]</t>
         </is>
       </c>
-      <c r="CA2" s="1" t="inlineStr">
+      <c r="CC2" s="1" t="inlineStr">
         <is>
           <t>Deductions [USD]</t>
         </is>
       </c>
-      <c r="CB2" s="1" t="inlineStr">
+      <c r="CD2" s="1" t="inlineStr">
         <is>
           <t>Credits [USD]</t>
         </is>
       </c>
-      <c r="CC2" s="1" t="inlineStr">
+      <c r="CE2" s="1" t="inlineStr">
         <is>
           <t>Refunds [USD]</t>
         </is>
       </c>
-      <c r="CD2" s="1" t="inlineStr">
+      <c r="CF2" s="1" t="inlineStr">
         <is>
           <t>MFSP [USD/gal]</t>
         </is>
       </c>
-      <c r="CE2" s="1" t="inlineStr">
+      <c r="CG2" s="1" t="inlineStr">
         <is>
           <t>MFSP Reduction [USD/gal]</t>
         </is>
       </c>
-      <c r="CF2" s="1" t="inlineStr">
+      <c r="CH2" s="1" t="inlineStr">
         <is>
           <t>Exemptions [USD]</t>
         </is>
       </c>
-      <c r="CG2" s="1" t="inlineStr">
+      <c r="CI2" s="1" t="inlineStr">
         <is>
           <t>Deductions [USD]</t>
         </is>
       </c>
-      <c r="CH2" s="1" t="inlineStr">
+      <c r="CJ2" s="1" t="inlineStr">
         <is>
           <t>Credits [USD]</t>
         </is>
       </c>
-      <c r="CI2" s="1" t="inlineStr">
+      <c r="CK2" s="1" t="inlineStr">
         <is>
           <t>Refunds [USD]</t>
         </is>
       </c>
-      <c r="CJ2" s="1" t="inlineStr">
+      <c r="CL2" s="1" t="inlineStr">
         <is>
           <t>MFSP [USD/gal]</t>
         </is>
       </c>
-      <c r="CK2" s="1" t="inlineStr">
+      <c r="CM2" s="1" t="inlineStr">
         <is>
           <t>MFSP Reduction [USD/gal]</t>
         </is>
       </c>
-      <c r="CL2" s="1" t="inlineStr">
+      <c r="CN2" s="1" t="inlineStr">
         <is>
           <t>Exemptions [USD]</t>
         </is>
       </c>
-      <c r="CM2" s="1" t="inlineStr">
+      <c r="CO2" s="1" t="inlineStr">
         <is>
           <t>Deductions [USD]</t>
         </is>
       </c>
-      <c r="CN2" s="1" t="inlineStr">
+      <c r="CP2" s="1" t="inlineStr">
         <is>
           <t>Credits [USD]</t>
         </is>
       </c>
-      <c r="CO2" s="1" t="inlineStr">
+      <c r="CQ2" s="1" t="inlineStr">
         <is>
           <t>Refunds [USD]</t>
         </is>
       </c>
-      <c r="CP2" s="1" t="inlineStr">
+      <c r="CR2" s="1" t="inlineStr">
         <is>
           <t>MFSP [USD/gal]</t>
         </is>
       </c>
-      <c r="CQ2" s="1" t="inlineStr">
+      <c r="CS2" s="1" t="inlineStr">
         <is>
           <t>MFSP Reduction [USD/gal]</t>
         </is>
       </c>
-      <c r="CR2" s="1" t="inlineStr">
+      <c r="CT2" s="1" t="inlineStr">
         <is>
           <t>Exemptions [USD]</t>
         </is>
       </c>
-      <c r="CS2" s="1" t="inlineStr">
+      <c r="CU2" s="1" t="inlineStr">
         <is>
           <t>Deductions [USD]</t>
         </is>
       </c>
-      <c r="CT2" s="1" t="inlineStr">
+      <c r="CV2" s="1" t="inlineStr">
         <is>
           <t>Credits [USD]</t>
         </is>
       </c>
-      <c r="CU2" s="1" t="inlineStr">
+      <c r="CW2" s="1" t="inlineStr">
         <is>
           <t>Refunds [USD]</t>
         </is>
       </c>
-      <c r="CV2" s="1" t="inlineStr">
+      <c r="CX2" s="1" t="inlineStr">
         <is>
           <t>MFSP [USD/gal]</t>
         </is>
       </c>
-      <c r="CW2" s="1" t="inlineStr">
+      <c r="CY2" s="1" t="inlineStr">
         <is>
           <t>MFSP Reduction [USD/gal]</t>
         </is>
       </c>
-      <c r="CX2" s="1" t="inlineStr">
+      <c r="CZ2" s="1" t="inlineStr">
         <is>
           <t>Exemptions [USD]</t>
         </is>
       </c>
-      <c r="CY2" s="1" t="inlineStr">
+      <c r="DA2" s="1" t="inlineStr">
         <is>
           <t>Deductions [USD]</t>
         </is>
       </c>
-      <c r="CZ2" s="1" t="inlineStr">
+      <c r="DB2" s="1" t="inlineStr">
         <is>
           <t>Credits [USD]</t>
         </is>
       </c>
-      <c r="DA2" s="1" t="inlineStr">
+      <c r="DC2" s="1" t="inlineStr">
         <is>
           <t>Refunds [USD]</t>
         </is>
       </c>
-      <c r="DB2" s="1" t="inlineStr">
+      <c r="DD2" s="1" t="inlineStr">
         <is>
           <t>MFSP [USD/gal]</t>
         </is>
       </c>
-      <c r="DC2" s="1" t="inlineStr">
+      <c r="DE2" s="1" t="inlineStr">
         <is>
           <t>MFSP Reduction [USD/gal]</t>
         </is>
       </c>
-      <c r="DD2" s="1" t="inlineStr">
+      <c r="DF2" s="1" t="inlineStr">
         <is>
           <t>Exemptions [USD]</t>
         </is>
       </c>
-      <c r="DE2" s="1" t="inlineStr">
+      <c r="DG2" s="1" t="inlineStr">
         <is>
           <t>Deductions [USD]</t>
         </is>
       </c>
-      <c r="DF2" s="1" t="inlineStr">
+      <c r="DH2" s="1" t="inlineStr">
         <is>
           <t>Credits [USD]</t>
         </is>
       </c>
-      <c r="DG2" s="1" t="inlineStr">
+      <c r="DI2" s="1" t="inlineStr">
         <is>
           <t>Refunds [USD]</t>
         </is>
       </c>
-      <c r="DH2" s="1" t="inlineStr">
+      <c r="DJ2" s="1" t="inlineStr">
         <is>
           <t>MFSP [USD/gal]</t>
         </is>
       </c>
-      <c r="DI2" s="1" t="inlineStr">
+      <c r="DK2" s="1" t="inlineStr">
         <is>
           <t>MFSP Reduction [USD/gal]</t>
         </is>
       </c>
-      <c r="DJ2" s="1" t="inlineStr">
+      <c r="DL2" s="1" t="inlineStr">
         <is>
           <t>Exemptions [USD]</t>
         </is>
       </c>
-      <c r="DK2" s="1" t="inlineStr">
+      <c r="DM2" s="1" t="inlineStr">
         <is>
           <t>Deductions [USD]</t>
         </is>
       </c>
-      <c r="DL2" s="1" t="inlineStr">
+      <c r="DN2" s="1" t="inlineStr">
         <is>
           <t>Credits [USD]</t>
         </is>
       </c>
-      <c r="DM2" s="1" t="inlineStr">
+      <c r="DO2" s="1" t="inlineStr">
         <is>
           <t>Refunds [USD]</t>
         </is>
       </c>
-      <c r="DN2" s="1" t="inlineStr">
+      <c r="DP2" s="1" t="inlineStr">
         <is>
           <t>MFSP [USD/gal]</t>
         </is>
       </c>
-      <c r="DO2" s="1" t="inlineStr">
+      <c r="DQ2" s="1" t="inlineStr">
         <is>
           <t>MFSP Reduction [USD/gal]</t>
         </is>
       </c>
-      <c r="DP2" s="1" t="inlineStr">
+      <c r="DR2" s="1" t="inlineStr">
         <is>
           <t>Exemptions [USD]</t>
         </is>
       </c>
-      <c r="DQ2" s="1" t="inlineStr">
+      <c r="DS2" s="1" t="inlineStr">
         <is>
           <t>Deductions [USD]</t>
         </is>
       </c>
-      <c r="DR2" s="1" t="inlineStr">
+      <c r="DT2" s="1" t="inlineStr">
         <is>
           <t>Credits [USD]</t>
         </is>
       </c>
-      <c r="DS2" s="1" t="inlineStr">
+      <c r="DU2" s="1" t="inlineStr">
         <is>
           <t>Refunds [USD]</t>
         </is>
       </c>
-      <c r="DT2" s="1" t="inlineStr">
+      <c r="DV2" s="1" t="inlineStr">
         <is>
           <t>MFSP [USD/gal]</t>
         </is>
       </c>
-      <c r="DU2" s="1" t="inlineStr">
+      <c r="DW2" s="1" t="inlineStr">
         <is>
           <t>MFSP Reduction [USD/gal]</t>
         </is>
       </c>
-      <c r="DV2" s="1" t="inlineStr">
+      <c r="DX2" s="1" t="inlineStr">
         <is>
           <t>Exemptions [USD]</t>
         </is>
       </c>
-      <c r="DW2" s="1" t="inlineStr">
+      <c r="DY2" s="1" t="inlineStr">
         <is>
           <t>Deductions [USD]</t>
         </is>
       </c>
-      <c r="DX2" s="1" t="inlineStr">
+      <c r="DZ2" s="1" t="inlineStr">
         <is>
           <t>Credits [USD]</t>
         </is>
       </c>
-      <c r="DY2" s="1" t="inlineStr">
+      <c r="EA2" s="1" t="inlineStr">
         <is>
           <t>Refunds [USD]</t>
         </is>
       </c>
-      <c r="DZ2" s="1" t="inlineStr">
+      <c r="EB2" s="1" t="inlineStr">
         <is>
           <t>MFSP [USD/gal]</t>
         </is>
       </c>
-      <c r="EA2" s="1" t="inlineStr">
+      <c r="EC2" s="1" t="inlineStr">
         <is>
           <t>MFSP Reduction [USD/gal]</t>
         </is>
       </c>
-      <c r="EB2" s="1" t="inlineStr">
+      <c r="ED2" s="1" t="inlineStr">
         <is>
           <t>Exemptions [USD]</t>
         </is>
       </c>
-      <c r="EC2" s="1" t="inlineStr">
+      <c r="EE2" s="1" t="inlineStr">
         <is>
           <t>Deductions [USD]</t>
         </is>
       </c>
-      <c r="ED2" s="1" t="inlineStr">
+      <c r="EF2" s="1" t="inlineStr">
         <is>
           <t>Credits [USD]</t>
         </is>
       </c>
-      <c r="EE2" s="1" t="inlineStr">
+      <c r="EG2" s="1" t="inlineStr">
         <is>
           <t>Refunds [USD]</t>
         </is>
       </c>
-      <c r="EF2" s="1" t="inlineStr">
+      <c r="EH2" s="1" t="inlineStr">
         <is>
           <t>MFSP [USD/gal]</t>
         </is>
       </c>
-      <c r="EG2" s="1" t="inlineStr">
+      <c r="EI2" s="1" t="inlineStr">
         <is>
           <t>MFSP Reduction [USD/gal]</t>
         </is>
       </c>
-      <c r="EH2" s="1" t="inlineStr">
+      <c r="EJ2" s="1" t="inlineStr">
         <is>
           <t>Exemptions [USD]</t>
         </is>
       </c>
-      <c r="EI2" s="1" t="inlineStr">
+      <c r="EK2" s="1" t="inlineStr">
         <is>
           <t>Deductions [USD]</t>
         </is>
       </c>
-      <c r="EJ2" s="1" t="inlineStr">
+      <c r="EL2" s="1" t="inlineStr">
         <is>
           <t>Credits [USD]</t>
         </is>
       </c>
-      <c r="EK2" s="1" t="inlineStr">
+      <c r="EM2" s="1" t="inlineStr">
         <is>
           <t>Refunds [USD]</t>
         </is>
       </c>
-      <c r="EL2" s="1" t="inlineStr">
+      <c r="EN2" s="1" t="inlineStr">
         <is>
           <t>MFSP [USD/gal]</t>
         </is>
       </c>
-      <c r="EM2" s="1" t="inlineStr">
+      <c r="EO2" s="1" t="inlineStr">
         <is>
           <t>MFSP Reduction [USD/gal]</t>
         </is>
       </c>
-      <c r="EN2" s="1" t="inlineStr">
+      <c r="EP2" s="1" t="inlineStr">
         <is>
           <t>Exemptions [USD]</t>
         </is>
       </c>
-      <c r="EO2" s="1" t="inlineStr">
+      <c r="EQ2" s="1" t="inlineStr">
         <is>
           <t>Deductions [USD]</t>
         </is>
       </c>
-      <c r="EP2" s="1" t="inlineStr">
+      <c r="ER2" s="1" t="inlineStr">
         <is>
           <t>Credits [USD]</t>
         </is>
       </c>
-      <c r="EQ2" s="1" t="inlineStr">
+      <c r="ES2" s="1" t="inlineStr">
         <is>
           <t>Refunds [USD]</t>
         </is>
@@ -1467,61 +1479,61 @@
         <v>97.05480087800429</v>
       </c>
       <c r="C4" t="n">
-        <v>203.1591204659502</v>
+        <v>203.5286541814846</v>
       </c>
       <c r="D4" t="n">
-        <v>637451.4176766881</v>
+        <v>781916.0614432549</v>
       </c>
       <c r="E4" t="n">
-        <v>11.3114321572009</v>
+        <v>10.54057239758199</v>
       </c>
       <c r="F4" t="n">
-        <v>75.18844553679749</v>
+        <v>79.56068325175728</v>
       </c>
       <c r="G4" t="n">
-        <v>4.288465362571509</v>
+        <v>4.966396899731606</v>
       </c>
       <c r="H4" t="n">
-        <v>68.20594324006429</v>
+        <v>77.28085975318913</v>
       </c>
       <c r="I4" t="n">
-        <v>97.81711584250782</v>
+        <v>94.80986770463907</v>
       </c>
       <c r="J4" t="n">
-        <v>79.37081047075981</v>
+        <v>72.74561720028672</v>
       </c>
       <c r="K4" t="n">
-        <v>94.70199994958887</v>
+        <v>93.94861387448363</v>
       </c>
       <c r="L4" t="n">
-        <v>-18.80064248471434</v>
+        <v>-13.95556347659574</v>
       </c>
       <c r="M4" t="n">
-        <v>-350929.4508126759</v>
+        <v>-238717.3313438475</v>
       </c>
       <c r="N4" t="n">
-        <v>41966848.88155998</v>
+        <v>55111655.4796123</v>
       </c>
       <c r="O4" t="n">
-        <v>360137280.4078325</v>
+        <v>421275039.5350744</v>
       </c>
       <c r="P4" t="n">
-        <v>342987886.1026976</v>
+        <v>401214323.3667375</v>
       </c>
       <c r="Q4" t="n">
-        <v>201284755.6916548</v>
+        <v>234891148.9803516</v>
       </c>
       <c r="R4" t="n">
-        <v>68850197.59655085</v>
+        <v>74064782.54882497</v>
       </c>
       <c r="S4" t="n">
-        <v>2627784088.839114</v>
+        <v>3212925963.572784</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>136703612.9608077</v>
+        <v>160620470.0014945</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1530,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>3.250952699502286</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -1539,16 +1551,16 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.375739195506397</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.250952699502286</v>
+        <v>2.368873783128571</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>24.46547012237363</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -1560,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>3.250952699502286</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
@@ -1578,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.250952699502286</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="AQ4" t="n">
         <v>0</v>
@@ -1596,13 +1608,13 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.250952699502286</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>0</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -1614,13 +1626,13 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>3.250952699502286</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
         <v>0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="BC4" t="n">
         <v>0</v>
@@ -1632,16 +1644,16 @@
         <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>3.143661020290947</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>-3.300314988519068</v>
+        <v>0</v>
       </c>
       <c r="BH4" t="n">
-        <v>0</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="BI4" t="n">
-        <v>141442597.1379325</v>
+        <v>0</v>
       </c>
       <c r="BJ4" t="n">
         <v>0</v>
@@ -1650,13 +1662,13 @@
         <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>3.250952699502286</v>
+        <v>0</v>
       </c>
       <c r="BM4" t="n">
         <v>0</v>
       </c>
       <c r="BN4" t="n">
-        <v>0</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="BO4" t="n">
         <v>0</v>
@@ -1668,13 +1680,13 @@
         <v>0</v>
       </c>
       <c r="BR4" t="n">
-        <v>3.250952699502286</v>
+        <v>0</v>
       </c>
       <c r="BS4" t="n">
         <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>0</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1686,13 +1698,13 @@
         <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>3.250952699502286</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="CA4" t="n">
         <v>0</v>
@@ -1704,13 +1716,13 @@
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>3.250952699502286</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
         <v>0</v>
       </c>
       <c r="CF4" t="n">
-        <v>0</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="CG4" t="n">
         <v>0</v>
@@ -1722,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3.250952699502286</v>
+        <v>0</v>
       </c>
       <c r="CK4" t="n">
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>0</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="CM4" t="n">
         <v>0</v>
@@ -1740,13 +1752,13 @@
         <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>3.250952699502286</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
         <v>0</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="CS4" t="n">
         <v>0</v>
@@ -1758,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>3.250952699502286</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
         <v>0</v>
       </c>
       <c r="CX4" t="n">
-        <v>0</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="CY4" t="n">
         <v>0</v>
@@ -1776,13 +1788,13 @@
         <v>0</v>
       </c>
       <c r="DB4" t="n">
-        <v>3.250952699502286</v>
+        <v>0</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="DE4" t="n">
         <v>0</v>
@@ -1794,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>3.250952699502286</v>
+        <v>0</v>
       </c>
       <c r="DI4" t="n">
         <v>0</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
@@ -1812,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>3.250952699502286</v>
+        <v>0</v>
       </c>
       <c r="DO4" t="n">
         <v>0</v>
       </c>
       <c r="DP4" t="n">
-        <v>0</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="DQ4" t="n">
         <v>0</v>
@@ -1830,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="DT4" t="n">
-        <v>3.250952699502286</v>
+        <v>0</v>
       </c>
       <c r="DU4" t="n">
         <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>0</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="DW4" t="n">
         <v>0</v>
@@ -1848,13 +1860,13 @@
         <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3.250952699502286</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
         <v>0</v>
       </c>
       <c r="EB4" t="n">
-        <v>0</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="EC4" t="n">
         <v>0</v>
@@ -1866,13 +1878,13 @@
         <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>3.250952699502286</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
         <v>0</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="EI4" t="n">
         <v>0</v>
@@ -1884,13 +1896,13 @@
         <v>0</v>
       </c>
       <c r="EL4" t="n">
-        <v>3.250952699502286</v>
+        <v>0</v>
       </c>
       <c r="EM4" t="n">
         <v>0</v>
       </c>
       <c r="EN4" t="n">
-        <v>0</v>
+        <v>3.136146854910446</v>
       </c>
       <c r="EO4" t="n">
         <v>0</v>
@@ -1899,6 +1911,12 @@
         <v>0</v>
       </c>
       <c r="EQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1910,61 +1928,61 @@
         <v>83.3620468311114</v>
       </c>
       <c r="C5" t="n">
-        <v>215.4972823967847</v>
+        <v>215.8892584560875</v>
       </c>
       <c r="D5" t="n">
-        <v>696580.551380638</v>
+        <v>854445.5406478863</v>
       </c>
       <c r="E5" t="n">
-        <v>9.968014330583928</v>
+        <v>9.288706792514123</v>
       </c>
       <c r="F5" t="n">
-        <v>71.86070201400676</v>
+        <v>76.03943013274889</v>
       </c>
       <c r="G5" t="n">
-        <v>4.627599728710694</v>
+        <v>5.359142491030062</v>
       </c>
       <c r="H5" t="n">
-        <v>79.2202596228787</v>
+        <v>89.76064962518873</v>
       </c>
       <c r="I5" t="n">
-        <v>97.2861043366629</v>
+        <v>94.02242924260614</v>
       </c>
       <c r="J5" t="n">
-        <v>72.11219375509168</v>
+        <v>66.09288743893292</v>
       </c>
       <c r="K5" t="n">
-        <v>90.69001448871704</v>
+        <v>89.77926411232507</v>
       </c>
       <c r="L5" t="n">
-        <v>-9.362390822208665</v>
+        <v>-1.54654882225625</v>
       </c>
       <c r="M5" t="n">
-        <v>-187984.7604174142</v>
+        <v>-50037.06215664174</v>
       </c>
       <c r="N5" t="n">
-        <v>48917477.82193165</v>
+        <v>64424035.44732844</v>
       </c>
       <c r="O5" t="n">
-        <v>363649999.1494761</v>
+        <v>424389941.9225325</v>
       </c>
       <c r="P5" t="n">
-        <v>346333332.5233105</v>
+        <v>404180897.0690786</v>
       </c>
       <c r="Q5" t="n">
-        <v>202700813.9248576</v>
+        <v>235940192.7789054</v>
       </c>
       <c r="R5" t="n">
-        <v>63182062.09920025</v>
+        <v>66546128.81262936</v>
       </c>
       <c r="S5" t="n">
-        <v>2464970038.102496</v>
+        <v>3012647655.204988</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>138872521.8959965</v>
+        <v>162857496.0028846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1973,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>2.975998267587493</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1982,16 +2000,16 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.231678430649216</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.975998267587493</v>
+        <v>2.220722408512173</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>22.58441357964279</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -2003,13 +2021,13 @@
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.975998267587493</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
@@ -2021,13 +2039,13 @@
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.975998267587493</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="AQ5" t="n">
         <v>0</v>
@@ -2039,13 +2057,13 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.975998267587493</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="AW5" t="n">
         <v>0</v>
@@ -2057,13 +2075,13 @@
         <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2.975998267587493</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
         <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="BC5" t="n">
         <v>0</v>
@@ -2075,16 +2093,16 @@
         <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>2.888260153243924</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-2.948191042284914</v>
+        <v>0</v>
       </c>
       <c r="BH5" t="n">
-        <v>0</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="BI5" t="n">
-        <v>132917655.1067782</v>
+        <v>0</v>
       </c>
       <c r="BJ5" t="n">
         <v>0</v>
@@ -2093,13 +2111,13 @@
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>2.975998267587493</v>
+        <v>0</v>
       </c>
       <c r="BM5" t="n">
         <v>0</v>
       </c>
       <c r="BN5" t="n">
-        <v>0</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="BO5" t="n">
         <v>0</v>
@@ -2111,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="BR5" t="n">
-        <v>2.975998267587493</v>
+        <v>0</v>
       </c>
       <c r="BS5" t="n">
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>0</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2129,13 +2147,13 @@
         <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>2.975998267587493</v>
+        <v>0</v>
       </c>
       <c r="BY5" t="n">
         <v>0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="CA5" t="n">
         <v>0</v>
@@ -2147,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>2.975998267587493</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
         <v>0</v>
       </c>
       <c r="CF5" t="n">
-        <v>0</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="CG5" t="n">
         <v>0</v>
@@ -2165,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>2.975998267587493</v>
+        <v>0</v>
       </c>
       <c r="CK5" t="n">
         <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>0</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="CM5" t="n">
         <v>0</v>
@@ -2183,13 +2201,13 @@
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>2.975998267587493</v>
+        <v>0</v>
       </c>
       <c r="CQ5" t="n">
         <v>0</v>
       </c>
       <c r="CR5" t="n">
-        <v>0</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="CS5" t="n">
         <v>0</v>
@@ -2201,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>2.975998267587493</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
         <v>0</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="CY5" t="n">
         <v>0</v>
@@ -2219,13 +2237,13 @@
         <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>2.975998267587493</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>0</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="DE5" t="n">
         <v>0</v>
@@ -2237,13 +2255,13 @@
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>2.975998267587493</v>
+        <v>0</v>
       </c>
       <c r="DI5" t="n">
         <v>0</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="DK5" t="n">
         <v>0</v>
@@ -2255,13 +2273,13 @@
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>2.975998267587493</v>
+        <v>0</v>
       </c>
       <c r="DO5" t="n">
         <v>0</v>
       </c>
       <c r="DP5" t="n">
-        <v>0</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="DQ5" t="n">
         <v>0</v>
@@ -2273,13 +2291,13 @@
         <v>0</v>
       </c>
       <c r="DT5" t="n">
-        <v>2.975998267587493</v>
+        <v>0</v>
       </c>
       <c r="DU5" t="n">
         <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="DW5" t="n">
         <v>0</v>
@@ -2291,13 +2309,13 @@
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>2.975998267587493</v>
+        <v>0</v>
       </c>
       <c r="EA5" t="n">
         <v>0</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="EC5" t="n">
         <v>0</v>
@@ -2309,13 +2327,13 @@
         <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>2.975998267587493</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
         <v>0</v>
       </c>
       <c r="EH5" t="n">
-        <v>0</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="EI5" t="n">
         <v>0</v>
@@ -2327,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>2.975998267587493</v>
+        <v>0</v>
       </c>
       <c r="EM5" t="n">
         <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>0</v>
+        <v>2.868572739931104</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
@@ -2342,6 +2360,12 @@
         <v>0</v>
       </c>
       <c r="EQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2353,61 +2377,61 @@
         <v>85.19883708195303</v>
       </c>
       <c r="C6" t="n">
-        <v>193.9617669983471</v>
+        <v>194.3145713039876</v>
       </c>
       <c r="D6" t="n">
-        <v>732461.0114645484</v>
+        <v>898457.5347443726</v>
       </c>
       <c r="E6" t="n">
-        <v>11.14243432171286</v>
+        <v>10.38309155030817</v>
       </c>
       <c r="F6" t="n">
-        <v>78.13422293237068</v>
+        <v>82.67775876284341</v>
       </c>
       <c r="G6" t="n">
-        <v>4.505494079377302</v>
+        <v>5.217734069364404</v>
       </c>
       <c r="H6" t="n">
-        <v>82.15700619466919</v>
+        <v>93.08813531285659</v>
       </c>
       <c r="I6" t="n">
-        <v>89.75090236795917</v>
+        <v>82.84845695757524</v>
       </c>
       <c r="J6" t="n">
-        <v>85.80334746235879</v>
+        <v>78.64122127490974</v>
       </c>
       <c r="K6" t="n">
-        <v>85.92853990414912</v>
+        <v>84.83102760441453</v>
       </c>
       <c r="L6" t="n">
-        <v>-21.57099565754555</v>
+        <v>-18.04247749214864</v>
       </c>
       <c r="M6" t="n">
-        <v>-402681.7316472934</v>
+        <v>-305189.2892149782</v>
       </c>
       <c r="N6" t="n">
-        <v>51448200.65958654</v>
+        <v>65871459.65957315</v>
       </c>
       <c r="O6" t="n">
-        <v>396141942.3183153</v>
+        <v>463464140.4994772</v>
       </c>
       <c r="P6" t="n">
-        <v>377278040.3031574</v>
+        <v>441394419.5233116</v>
       </c>
       <c r="Q6" t="n">
-        <v>221676191.8814418</v>
+        <v>258774750.0707617</v>
       </c>
       <c r="R6" t="n">
-        <v>76825234.95108429</v>
+        <v>84018927.55502458</v>
       </c>
       <c r="S6" t="n">
-        <v>2657974566.9343</v>
+        <v>3250130200.814199</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>150496745.6750891</v>
+        <v>176776636.9526993</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2416,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>2.768863718532619</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -2425,16 +2449,16 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.981074658464397</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.768863718532619</v>
+        <v>2.012063716841643</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>26.1000375810122</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -2446,13 +2470,13 @@
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.768863718532619</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
@@ -2464,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.768863718532619</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="AQ6" t="n">
         <v>0</v>
@@ -2482,13 +2506,13 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.768863718532619</v>
+        <v>0</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
@@ -2500,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2.768863718532619</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="BC6" t="n">
         <v>0</v>
@@ -2518,16 +2542,16 @@
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.680464969946652</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>-3.192600198929791</v>
+        <v>0</v>
       </c>
       <c r="BH6" t="n">
-        <v>0</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="BI6" t="n">
-        <v>143389022.343006</v>
+        <v>0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
@@ -2536,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>2.768863718532619</v>
+        <v>0</v>
       </c>
       <c r="BM6" t="n">
         <v>0</v>
       </c>
       <c r="BN6" t="n">
-        <v>0</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="BO6" t="n">
         <v>0</v>
@@ -2554,13 +2578,13 @@
         <v>0</v>
       </c>
       <c r="BR6" t="n">
-        <v>2.768863718532619</v>
+        <v>0</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>0</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
@@ -2572,13 +2596,13 @@
         <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>2.768863718532619</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
         <v>0</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="CA6" t="n">
         <v>0</v>
@@ -2590,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>2.768863718532619</v>
+        <v>0</v>
       </c>
       <c r="CE6" t="n">
         <v>0</v>
       </c>
       <c r="CF6" t="n">
-        <v>0</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="CG6" t="n">
         <v>0</v>
@@ -2608,13 +2632,13 @@
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>2.768863718532619</v>
+        <v>0</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
@@ -2626,13 +2650,13 @@
         <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>2.768863718532619</v>
+        <v>0</v>
       </c>
       <c r="CQ6" t="n">
         <v>0</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="CS6" t="n">
         <v>0</v>
@@ -2644,13 +2668,13 @@
         <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>2.768863718532619</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
       </c>
       <c r="CX6" t="n">
-        <v>0</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="CY6" t="n">
         <v>0</v>
@@ -2662,13 +2686,13 @@
         <v>0</v>
       </c>
       <c r="DB6" t="n">
-        <v>2.768863718532619</v>
+        <v>0</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>0</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="DE6" t="n">
         <v>0</v>
@@ -2680,13 +2704,13 @@
         <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>2.768863718532619</v>
+        <v>0</v>
       </c>
       <c r="DI6" t="n">
         <v>0</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
@@ -2698,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>2.768863718532619</v>
+        <v>0</v>
       </c>
       <c r="DO6" t="n">
         <v>0</v>
       </c>
       <c r="DP6" t="n">
-        <v>0</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="DQ6" t="n">
         <v>0</v>
@@ -2716,13 +2740,13 @@
         <v>0</v>
       </c>
       <c r="DT6" t="n">
-        <v>2.768863718532619</v>
+        <v>0</v>
       </c>
       <c r="DU6" t="n">
         <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>0</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="DW6" t="n">
         <v>0</v>
@@ -2734,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>2.768863718532619</v>
+        <v>0</v>
       </c>
       <c r="EA6" t="n">
         <v>0</v>
       </c>
       <c r="EB6" t="n">
-        <v>0</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="EC6" t="n">
         <v>0</v>
@@ -2752,13 +2776,13 @@
         <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>2.768863718532619</v>
+        <v>0</v>
       </c>
       <c r="EG6" t="n">
         <v>0</v>
       </c>
       <c r="EH6" t="n">
-        <v>0</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="EI6" t="n">
         <v>0</v>
@@ -2770,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="EL6" t="n">
-        <v>2.768863718532619</v>
+        <v>0</v>
       </c>
       <c r="EM6" t="n">
         <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
+        <v>2.722685710493223</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
@@ -2785,6 +2809,12 @@
         <v>0</v>
       </c>
       <c r="EQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2796,61 +2826,61 @@
         <v>87.70899881780628</v>
       </c>
       <c r="C7" t="n">
-        <v>189.9820569903907</v>
+        <v>190.3276224527904</v>
       </c>
       <c r="D7" t="n">
-        <v>655290.9468421394</v>
+        <v>803798.5359287483</v>
       </c>
       <c r="E7" t="n">
-        <v>10.94244140538334</v>
+        <v>10.1967278976532</v>
       </c>
       <c r="F7" t="n">
-        <v>74.07683830577569</v>
+        <v>78.38443562253337</v>
       </c>
       <c r="G7" t="n">
-        <v>4.131827934148344</v>
+        <v>4.784997827305317</v>
       </c>
       <c r="H7" t="n">
-        <v>77.12081924096685</v>
+        <v>87.38187513711146</v>
       </c>
       <c r="I7" t="n">
-        <v>99.24484759601938</v>
+        <v>96.92705515501625</v>
       </c>
       <c r="J7" t="n">
-        <v>75.74586718023359</v>
+        <v>69.4232530286053</v>
       </c>
       <c r="K7" t="n">
-        <v>82.64305254333942</v>
+        <v>81.41667177487219</v>
       </c>
       <c r="L7" t="n">
-        <v>-9.575085768831988</v>
+        <v>-2.730180441752902</v>
       </c>
       <c r="M7" t="n">
-        <v>-190280.5427186347</v>
+        <v>-66697.73895878276</v>
       </c>
       <c r="N7" t="n">
-        <v>46376385.83842567</v>
+        <v>61399291.49835571</v>
       </c>
       <c r="O7" t="n">
-        <v>354862245.5783322</v>
+        <v>413649671.1720911</v>
       </c>
       <c r="P7" t="n">
-        <v>337964043.4079354</v>
+        <v>393952067.7829438</v>
       </c>
       <c r="Q7" t="n">
-        <v>197971861.971556</v>
+        <v>230150262.0593339</v>
       </c>
       <c r="R7" t="n">
-        <v>62883671.71366492</v>
+        <v>66522907.7638789</v>
       </c>
       <c r="S7" t="n">
-        <v>2440125010.011652</v>
+        <v>2982514829.339351</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>135492161.7613494</v>
+        <v>158601527.8478752</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -2859,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2.999086511888839</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -2868,16 +2898,16 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.230207359688286</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.999086511888839</v>
+        <v>2.197896608688352</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>23.23827858377696</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -2889,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.999086511888839</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
@@ -2907,13 +2937,13 @@
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.999086511888839</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="AQ7" t="n">
         <v>0</v>
@@ -2925,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.999086511888839</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="AW7" t="n">
         <v>0</v>
@@ -2943,13 +2973,13 @@
         <v>0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2.999086511888839</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
@@ -2961,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>2.907773711416332</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-3.044687110909581</v>
+        <v>0</v>
       </c>
       <c r="BH7" t="n">
-        <v>0</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="BI7" t="n">
-        <v>131533931.1348954</v>
+        <v>0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
@@ -2979,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>2.999086511888839</v>
+        <v>0</v>
       </c>
       <c r="BM7" t="n">
         <v>0</v>
       </c>
       <c r="BN7" t="n">
-        <v>0</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="BO7" t="n">
         <v>0</v>
@@ -2997,13 +3027,13 @@
         <v>0</v>
       </c>
       <c r="BR7" t="n">
-        <v>2.999086511888839</v>
+        <v>0</v>
       </c>
       <c r="BS7" t="n">
         <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3015,13 +3045,13 @@
         <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>2.999086511888839</v>
+        <v>0</v>
       </c>
       <c r="BY7" t="n">
         <v>0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="CA7" t="n">
         <v>0</v>
@@ -3033,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="CD7" t="n">
-        <v>2.999086511888839</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
         <v>0</v>
       </c>
       <c r="CF7" t="n">
-        <v>0</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="CG7" t="n">
         <v>0</v>
@@ -3051,13 +3081,13 @@
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>2.999086511888839</v>
+        <v>0</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
@@ -3069,13 +3099,13 @@
         <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>2.999086511888839</v>
+        <v>0</v>
       </c>
       <c r="CQ7" t="n">
         <v>0</v>
       </c>
       <c r="CR7" t="n">
-        <v>0</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="CS7" t="n">
         <v>0</v>
@@ -3087,13 +3117,13 @@
         <v>0</v>
       </c>
       <c r="CV7" t="n">
-        <v>2.999086511888839</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
         <v>0</v>
       </c>
       <c r="CX7" t="n">
-        <v>0</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="CY7" t="n">
         <v>0</v>
@@ -3105,13 +3135,13 @@
         <v>0</v>
       </c>
       <c r="DB7" t="n">
-        <v>2.999086511888839</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>0</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="DE7" t="n">
         <v>0</v>
@@ -3123,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>2.999086511888839</v>
+        <v>0</v>
       </c>
       <c r="DI7" t="n">
         <v>0</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="DK7" t="n">
         <v>0</v>
@@ -3141,13 +3171,13 @@
         <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>2.999086511888839</v>
+        <v>0</v>
       </c>
       <c r="DO7" t="n">
         <v>0</v>
       </c>
       <c r="DP7" t="n">
-        <v>0</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="DQ7" t="n">
         <v>0</v>
@@ -3159,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="DT7" t="n">
-        <v>2.999086511888839</v>
+        <v>0</v>
       </c>
       <c r="DU7" t="n">
         <v>0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
@@ -3177,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>2.999086511888839</v>
+        <v>0</v>
       </c>
       <c r="EA7" t="n">
         <v>0</v>
       </c>
       <c r="EB7" t="n">
-        <v>0</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="EC7" t="n">
         <v>0</v>
@@ -3195,13 +3225,13 @@
         <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>2.999086511888839</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
         <v>0</v>
       </c>
       <c r="EH7" t="n">
-        <v>0</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="EI7" t="n">
         <v>0</v>
@@ -3213,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>2.999086511888839</v>
+        <v>0</v>
       </c>
       <c r="EM7" t="n">
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>2.86327165172698</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
@@ -3228,6 +3258,12 @@
         <v>0</v>
       </c>
       <c r="EQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3239,61 +3275,61 @@
         <v>95.9879915229003</v>
       </c>
       <c r="C8" t="n">
-        <v>195.8341318723877</v>
+        <v>196.190341892461</v>
       </c>
       <c r="D8" t="n">
-        <v>617728.8412986551</v>
+        <v>757723.787623814</v>
       </c>
       <c r="E8" t="n">
-        <v>11.71401499159728</v>
+        <v>10.91571972225364</v>
       </c>
       <c r="F8" t="n">
-        <v>80.97358843688177</v>
+        <v>85.6822344895003</v>
       </c>
       <c r="G8" t="n">
-        <v>4.564374240515569</v>
+        <v>5.285922156479429</v>
       </c>
       <c r="H8" t="n">
-        <v>79.38328400293513</v>
+        <v>89.94536467571078</v>
       </c>
       <c r="I8" t="n">
-        <v>93.5683985909269</v>
+        <v>88.50943289037957</v>
       </c>
       <c r="J8" t="n">
-        <v>79.76223410112758</v>
+        <v>73.10436814926904</v>
       </c>
       <c r="K8" t="n">
-        <v>96.60676732642885</v>
+        <v>95.92809298452741</v>
       </c>
       <c r="L8" t="n">
-        <v>-15.67813828037738</v>
+        <v>-10.56779764048812</v>
       </c>
       <c r="M8" t="n">
-        <v>-295664.1467987907</v>
+        <v>-185868.1291038286</v>
       </c>
       <c r="N8" t="n">
-        <v>44203120.85840556</v>
+        <v>57328649.04945845</v>
       </c>
       <c r="O8" t="n">
-        <v>348913910.9352056</v>
+        <v>408209513.9254112</v>
       </c>
       <c r="P8" t="n">
-        <v>332298962.7954339</v>
+        <v>388770965.6432487</v>
       </c>
       <c r="Q8" t="n">
-        <v>194950150.9419804</v>
+        <v>227579607.9356992</v>
       </c>
       <c r="R8" t="n">
-        <v>65281879.41312745</v>
+        <v>70163667.82565044</v>
       </c>
       <c r="S8" t="n">
-        <v>2517785940.523963</v>
+        <v>3078474988.438314</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>132769224.3552672</v>
+        <v>156137993.3662741</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -3302,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>3.018937409490776</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -3311,16 +3347,16 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.217412197265606</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>3.018937409490776</v>
+        <v>2.232008451972544</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>24.17619284315363</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -3332,13 +3368,13 @@
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>3.018937409490776</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
@@ -3350,13 +3386,13 @@
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.018937409490776</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="AQ8" t="n">
         <v>0</v>
@@ -3368,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.018937409490776</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="AW8" t="n">
         <v>0</v>
@@ -3386,13 +3422,13 @@
         <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>3.018937409490776</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
         <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
@@ -3404,16 +3440,16 @@
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>2.92099431026388</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>-3.244290488401251</v>
+        <v>0</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="BI8" t="n">
-        <v>135559547.5775062</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
@@ -3422,13 +3458,13 @@
         <v>0</v>
       </c>
       <c r="BL8" t="n">
-        <v>3.018937409490776</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
         <v>0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="BO8" t="n">
         <v>0</v>
@@ -3440,13 +3476,13 @@
         <v>0</v>
       </c>
       <c r="BR8" t="n">
-        <v>3.018937409490776</v>
+        <v>0</v>
       </c>
       <c r="BS8" t="n">
         <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>0</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3458,13 +3494,13 @@
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>3.018937409490776</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
         <v>0</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="CA8" t="n">
         <v>0</v>
@@ -3476,13 +3512,13 @@
         <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>3.018937409490776</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
       </c>
       <c r="CF8" t="n">
-        <v>0</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="CG8" t="n">
         <v>0</v>
@@ -3494,13 +3530,13 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>3.018937409490776</v>
+        <v>0</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>0</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="CM8" t="n">
         <v>0</v>
@@ -3512,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>3.018937409490776</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
         <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>0</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="CS8" t="n">
         <v>0</v>
@@ -3530,13 +3566,13 @@
         <v>0</v>
       </c>
       <c r="CV8" t="n">
-        <v>3.018937409490776</v>
+        <v>0</v>
       </c>
       <c r="CW8" t="n">
         <v>0</v>
       </c>
       <c r="CX8" t="n">
-        <v>0</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="CY8" t="n">
         <v>0</v>
@@ -3548,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="DB8" t="n">
-        <v>3.018937409490776</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
       </c>
       <c r="DD8" t="n">
-        <v>0</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="DE8" t="n">
         <v>0</v>
@@ -3566,13 +3602,13 @@
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>3.018937409490776</v>
+        <v>0</v>
       </c>
       <c r="DI8" t="n">
         <v>0</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="DK8" t="n">
         <v>0</v>
@@ -3584,13 +3620,13 @@
         <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>3.018937409490776</v>
+        <v>0</v>
       </c>
       <c r="DO8" t="n">
         <v>0</v>
       </c>
       <c r="DP8" t="n">
-        <v>0</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="DQ8" t="n">
         <v>0</v>
@@ -3602,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="DT8" t="n">
-        <v>3.018937409490776</v>
+        <v>0</v>
       </c>
       <c r="DU8" t="n">
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>0</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="DW8" t="n">
         <v>0</v>
@@ -3620,13 +3656,13 @@
         <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>3.018937409490776</v>
+        <v>0</v>
       </c>
       <c r="EA8" t="n">
         <v>0</v>
       </c>
       <c r="EB8" t="n">
-        <v>0</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="EC8" t="n">
         <v>0</v>
@@ -3638,13 +3674,13 @@
         <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>3.018937409490776</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
         <v>0</v>
       </c>
       <c r="EH8" t="n">
-        <v>0</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="EI8" t="n">
         <v>0</v>
@@ -3656,13 +3692,13 @@
         <v>0</v>
       </c>
       <c r="EL8" t="n">
-        <v>3.018937409490776</v>
+        <v>0</v>
       </c>
       <c r="EM8" t="n">
         <v>0</v>
       </c>
       <c r="EN8" t="n">
-        <v>0</v>
+        <v>2.943677633273534</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
@@ -3671,6 +3707,12 @@
         <v>0</v>
       </c>
       <c r="EQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3682,61 +3724,61 @@
         <v>92.04847663963088</v>
       </c>
       <c r="C9" t="n">
-        <v>184.6161399767714</v>
+        <v>184.9519451722101</v>
       </c>
       <c r="D9" t="n">
-        <v>716031.5840861674</v>
+        <v>878304.7312659632</v>
       </c>
       <c r="E9" t="n">
-        <v>10.50381608941743</v>
+        <v>9.787994340832309</v>
       </c>
       <c r="F9" t="n">
-        <v>84.54757764567884</v>
+        <v>89.46405257812062</v>
       </c>
       <c r="G9" t="n">
-        <v>4.361358545369067</v>
+        <v>5.050813222693413</v>
       </c>
       <c r="H9" t="n">
-        <v>71.03563471891948</v>
+        <v>80.48704648610347</v>
       </c>
       <c r="I9" t="n">
-        <v>92.35400053939098</v>
+        <v>86.70859858929283</v>
       </c>
       <c r="J9" t="n">
-        <v>81.43111361888779</v>
+        <v>74.6339439446064</v>
       </c>
       <c r="K9" t="n">
-        <v>94.88279278468282</v>
+        <v>94.13649804588717</v>
       </c>
       <c r="L9" t="n">
-        <v>-21.87608242243909</v>
+        <v>-17.72701718987826</v>
       </c>
       <c r="M9" t="n">
-        <v>-407441.472263746</v>
+        <v>-299708.4197132462</v>
       </c>
       <c r="N9" t="n">
-        <v>48476458.19826571</v>
+        <v>62601992.88386711</v>
       </c>
       <c r="O9" t="n">
-        <v>387429550.8931432</v>
+        <v>454425644.230965</v>
       </c>
       <c r="P9" t="n">
-        <v>368980524.6601363</v>
+        <v>432786327.8390143</v>
       </c>
       <c r="Q9" t="n">
-        <v>216622338.490499</v>
+        <v>253531772.9772618</v>
       </c>
       <c r="R9" t="n">
-        <v>74661012.03255451</v>
+        <v>81155009.18639311</v>
       </c>
       <c r="S9" t="n">
-        <v>2800773278.693702</v>
+        <v>3425081946.189396</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>147110129.6360423</v>
+        <v>173258394.3428069</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -3745,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>2.966054655832407</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -3754,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.149432185126704</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.966054655832407</v>
+        <v>2.172377075535741</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>25.17754334689802</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -3775,13 +3817,13 @@
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.966054655832407</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="AK9" t="n">
         <v>0</v>
@@ -3793,13 +3835,13 @@
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.966054655832407</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="AQ9" t="n">
         <v>0</v>
@@ -3811,13 +3853,13 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.966054655832407</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="AW9" t="n">
         <v>0</v>
@@ -3829,13 +3871,13 @@
         <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>2.966054655832407</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
         <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="BC9" t="n">
         <v>0</v>
@@ -3847,16 +3889,16 @@
         <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>2.867179378055009</v>
+        <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>-3.333562231665931</v>
+        <v>0</v>
       </c>
       <c r="BH9" t="n">
-        <v>0</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="BI9" t="n">
-        <v>150793305.4951424</v>
+        <v>0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
@@ -3865,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>2.966054655832405</v>
+        <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-5.98895517959269e-14</v>
+        <v>0</v>
       </c>
       <c r="BN9" t="n">
-        <v>0</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="BO9" t="n">
         <v>0</v>
@@ -3883,13 +3925,13 @@
         <v>0</v>
       </c>
       <c r="BR9" t="n">
-        <v>2.966054655832405</v>
+        <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>-5.98895517959269e-14</v>
+        <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>0</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3901,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>2.966054655832405</v>
+        <v>0</v>
       </c>
       <c r="BY9" t="n">
-        <v>-5.98895517959269e-14</v>
+        <v>0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="CA9" t="n">
         <v>0</v>
@@ -3919,13 +3961,13 @@
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>2.966054655832405</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-5.98895517959269e-14</v>
+        <v>0</v>
       </c>
       <c r="CF9" t="n">
-        <v>0</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="CG9" t="n">
         <v>0</v>
@@ -3937,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>2.966054655832405</v>
+        <v>0</v>
       </c>
       <c r="CK9" t="n">
-        <v>-5.98895517959269e-14</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>0</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="CM9" t="n">
         <v>0</v>
@@ -3955,13 +3997,13 @@
         <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>2.966054655832405</v>
+        <v>0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-5.98895517959269e-14</v>
+        <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>0</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="CS9" t="n">
         <v>0</v>
@@ -3973,13 +4015,13 @@
         <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>2.966054655832405</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-5.98895517959269e-14</v>
+        <v>0</v>
       </c>
       <c r="CX9" t="n">
-        <v>0</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="CY9" t="n">
         <v>0</v>
@@ -3991,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="DB9" t="n">
-        <v>2.966054655832405</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>-5.98895517959269e-14</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
-        <v>0</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="DE9" t="n">
         <v>0</v>
@@ -4009,13 +4051,13 @@
         <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>2.966054655832405</v>
+        <v>0</v>
       </c>
       <c r="DI9" t="n">
-        <v>-5.98895517959269e-14</v>
+        <v>0</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="DK9" t="n">
         <v>0</v>
@@ -4027,13 +4069,13 @@
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>2.966054655832405</v>
+        <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>-5.98895517959269e-14</v>
+        <v>0</v>
       </c>
       <c r="DP9" t="n">
-        <v>0</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="DQ9" t="n">
         <v>0</v>
@@ -4045,13 +4087,13 @@
         <v>0</v>
       </c>
       <c r="DT9" t="n">
-        <v>2.966054655832405</v>
+        <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>-5.98895517959269e-14</v>
+        <v>0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="DW9" t="n">
         <v>0</v>
@@ -4063,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>2.966054655832405</v>
+        <v>0</v>
       </c>
       <c r="EA9" t="n">
-        <v>-5.98895517959269e-14</v>
+        <v>0</v>
       </c>
       <c r="EB9" t="n">
-        <v>0</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="EC9" t="n">
         <v>0</v>
@@ -4081,13 +4123,13 @@
         <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>2.966054655832405</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>-5.98895517959269e-14</v>
+        <v>0</v>
       </c>
       <c r="EH9" t="n">
-        <v>0</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="EI9" t="n">
         <v>0</v>
@@ -4099,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>2.966054655832405</v>
+        <v>0</v>
       </c>
       <c r="EM9" t="n">
-        <v>-5.98895517959269e-14</v>
+        <v>0</v>
       </c>
       <c r="EN9" t="n">
-        <v>0</v>
+        <v>2.903375768063182</v>
       </c>
       <c r="EO9" t="n">
         <v>0</v>
@@ -4114,6 +4156,12 @@
         <v>0</v>
       </c>
       <c r="EQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4125,61 +4173,61 @@
         <v>94.34707606536631</v>
       </c>
       <c r="C10" t="n">
-        <v>215.4264055945941</v>
+        <v>215.8182527334329</v>
       </c>
       <c r="D10" t="n">
-        <v>683945.5642412863</v>
+        <v>838947.1056198558</v>
       </c>
       <c r="E10" t="n">
-        <v>9.846873703031548</v>
+        <v>9.175821745133849</v>
       </c>
       <c r="F10" t="n">
-        <v>79.08295773901884</v>
+        <v>83.68166287208197</v>
       </c>
       <c r="G10" t="n">
-        <v>4.871621399067005</v>
+        <v>5.64173972912416</v>
       </c>
       <c r="H10" t="n">
-        <v>69.97737146968011</v>
+        <v>79.28797951537675</v>
       </c>
       <c r="I10" t="n">
-        <v>90.62717418969387</v>
+        <v>84.14788291734172</v>
       </c>
       <c r="J10" t="n">
-        <v>77.76662956590147</v>
+        <v>71.27533953356406</v>
       </c>
       <c r="K10" t="n">
-        <v>89.10620236426384</v>
+        <v>88.13332925817487</v>
       </c>
       <c r="L10" t="n">
-        <v>-17.36896578615666</v>
+        <v>-13.34830359419026</v>
       </c>
       <c r="M10" t="n">
-        <v>-327534.7158982151</v>
+        <v>-231142.8119637778</v>
       </c>
       <c r="N10" t="n">
-        <v>44269225.27652641</v>
+        <v>56837100.63187891</v>
       </c>
       <c r="O10" t="n">
-        <v>373160750.0660051</v>
+        <v>437666941.7021666</v>
       </c>
       <c r="P10" t="n">
-        <v>355391190.5390525</v>
+        <v>416825658.7639681</v>
       </c>
       <c r="Q10" t="n">
-        <v>208504566.2017596</v>
+        <v>244027170.4516756</v>
       </c>
       <c r="R10" t="n">
-        <v>70201640.50227353</v>
+        <v>76486110.21287908</v>
       </c>
       <c r="S10" t="n">
-        <v>2739179275.985826</v>
+        <v>3350330081.606952</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>141941365.2867067</v>
+        <v>167105993.4917643</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -4188,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>3.31034506507292</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -4197,16 +4245,16 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.45330389301779</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>3.31034506507292</v>
+        <v>2.467338788455339</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>23.83649469793857</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -4218,13 +4266,13 @@
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>3.31034506507292</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
@@ -4236,13 +4284,13 @@
         <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.31034506507292</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="AQ10" t="n">
         <v>0</v>
@@ -4254,13 +4302,13 @@
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.31034506507292</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="AW10" t="n">
         <v>0</v>
@@ -4272,13 +4320,13 @@
         <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>3.31034506507292</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
         <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="BC10" t="n">
         <v>0</v>
@@ -4290,16 +4338,16 @@
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>3.204075954325508</v>
+        <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>-3.210212490191605</v>
+        <v>0</v>
       </c>
       <c r="BH10" t="n">
-        <v>0</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="BI10" t="n">
-        <v>147417223.3721064</v>
+        <v>0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
@@ -4308,13 +4356,13 @@
         <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>3.310345065072921</v>
+        <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>2.683038783694173e-14</v>
+        <v>0</v>
       </c>
       <c r="BN10" t="n">
-        <v>0</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="BO10" t="n">
         <v>0</v>
@@ -4326,13 +4374,13 @@
         <v>0</v>
       </c>
       <c r="BR10" t="n">
-        <v>3.310345065072921</v>
+        <v>0</v>
       </c>
       <c r="BS10" t="n">
-        <v>2.683038783694173e-14</v>
+        <v>0</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4344,13 +4392,13 @@
         <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>3.310345065072921</v>
+        <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>2.683038783694173e-14</v>
+        <v>0</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="CA10" t="n">
         <v>0</v>
@@ -4362,13 +4410,13 @@
         <v>0</v>
       </c>
       <c r="CD10" t="n">
-        <v>3.310345065072921</v>
+        <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>2.683038783694173e-14</v>
+        <v>0</v>
       </c>
       <c r="CF10" t="n">
-        <v>0</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="CG10" t="n">
         <v>0</v>
@@ -4380,13 +4428,13 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>3.310345065072921</v>
+        <v>0</v>
       </c>
       <c r="CK10" t="n">
-        <v>2.683038783694173e-14</v>
+        <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>0</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="CM10" t="n">
         <v>0</v>
@@ -4398,13 +4446,13 @@
         <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>3.310345065072921</v>
+        <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>2.683038783694173e-14</v>
+        <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>0</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="CS10" t="n">
         <v>0</v>
@@ -4416,13 +4464,13 @@
         <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>3.310345065072921</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>2.683038783694173e-14</v>
+        <v>0</v>
       </c>
       <c r="CX10" t="n">
-        <v>0</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="CY10" t="n">
         <v>0</v>
@@ -4434,13 +4482,13 @@
         <v>0</v>
       </c>
       <c r="DB10" t="n">
-        <v>3.310345065072921</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>2.683038783694173e-14</v>
+        <v>0</v>
       </c>
       <c r="DD10" t="n">
-        <v>0</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="DE10" t="n">
         <v>0</v>
@@ -4452,13 +4500,13 @@
         <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>3.310345065072921</v>
+        <v>0</v>
       </c>
       <c r="DI10" t="n">
-        <v>2.683038783694173e-14</v>
+        <v>0</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="DK10" t="n">
         <v>0</v>
@@ -4470,13 +4518,13 @@
         <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>3.310345065072921</v>
+        <v>0</v>
       </c>
       <c r="DO10" t="n">
-        <v>2.683038783694173e-14</v>
+        <v>0</v>
       </c>
       <c r="DP10" t="n">
-        <v>0</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="DQ10" t="n">
         <v>0</v>
@@ -4488,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="DT10" t="n">
-        <v>3.310345065072921</v>
+        <v>0</v>
       </c>
       <c r="DU10" t="n">
-        <v>2.683038783694173e-14</v>
+        <v>0</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="DW10" t="n">
         <v>0</v>
@@ -4506,13 +4554,13 @@
         <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>3.310345065072921</v>
+        <v>0</v>
       </c>
       <c r="EA10" t="n">
-        <v>2.683038783694173e-14</v>
+        <v>0</v>
       </c>
       <c r="EB10" t="n">
-        <v>0</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="EC10" t="n">
         <v>0</v>
@@ -4524,13 +4572,13 @@
         <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>3.310345065072921</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>2.683038783694173e-14</v>
+        <v>0</v>
       </c>
       <c r="EH10" t="n">
-        <v>0</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="EI10" t="n">
         <v>0</v>
@@ -4542,13 +4590,13 @@
         <v>0</v>
       </c>
       <c r="EL10" t="n">
-        <v>3.310345065072921</v>
+        <v>0</v>
       </c>
       <c r="EM10" t="n">
-        <v>2.683038783694173e-14</v>
+        <v>0</v>
       </c>
       <c r="EN10" t="n">
-        <v>0</v>
+        <v>3.239528930122073</v>
       </c>
       <c r="EO10" t="n">
         <v>0</v>
@@ -4557,6 +4605,12 @@
         <v>0</v>
       </c>
       <c r="EQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,61 +4622,61 @@
         <v>89.4836630670372</v>
       </c>
       <c r="C11" t="n">
-        <v>180.0676716034289</v>
+        <v>180.3952034197836</v>
       </c>
       <c r="D11" t="n">
-        <v>736727.4765081009</v>
+        <v>903690.9022616942</v>
       </c>
       <c r="E11" t="n">
-        <v>10.7372778337965</v>
+        <v>10.00554596334076</v>
       </c>
       <c r="F11" t="n">
-        <v>87.46446726462659</v>
+        <v>92.55056047699537</v>
       </c>
       <c r="G11" t="n">
-        <v>4.948086983465248</v>
+        <v>5.730293188038861</v>
       </c>
       <c r="H11" t="n">
-        <v>76.19363363907493</v>
+        <v>86.33132591718812</v>
       </c>
       <c r="I11" t="n">
-        <v>95.18697278233165</v>
+        <v>90.90962113100535</v>
       </c>
       <c r="J11" t="n">
-        <v>86.12573591529599</v>
+        <v>78.9366995098939</v>
       </c>
       <c r="K11" t="n">
-        <v>92.88648779606497</v>
+        <v>92.06189089422489</v>
       </c>
       <c r="L11" t="n">
-        <v>-23.18409617746687</v>
+        <v>-17.80844855666938</v>
       </c>
       <c r="M11" t="n">
-        <v>-431032.9511220102</v>
+        <v>-301743.5782762905</v>
       </c>
       <c r="N11" t="n">
-        <v>53386361.49572497</v>
+        <v>69661232.9545048</v>
       </c>
       <c r="O11" t="n">
-        <v>396973638.906184</v>
+        <v>463514171.9106209</v>
       </c>
       <c r="P11" t="n">
-        <v>378070132.2916038</v>
+        <v>441442068.4863056</v>
       </c>
       <c r="Q11" t="n">
-        <v>222102814.857266</v>
+        <v>258687249.1143399</v>
       </c>
       <c r="R11" t="n">
-        <v>77134475.88305503</v>
+        <v>83117903.03154527</v>
       </c>
       <c r="S11" t="n">
-        <v>2803886054.502553</v>
+        <v>3427829038.288163</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>150638359.40215</v>
+        <v>176754617.3605655</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -4631,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>2.701532879489892</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -4640,16 +4694,16 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.940432406871224</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.701532879489892</v>
+        <v>1.965055303364303</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>25.44418857746786</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -4661,13 +4715,13 @@
         <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.701532879489892</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
@@ -4679,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.701532879489892</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -4697,13 +4751,13 @@
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.701532879489892</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="AW11" t="n">
         <v>0</v>
@@ -4715,13 +4769,13 @@
         <v>0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>2.701532879489892</v>
+        <v>0</v>
       </c>
       <c r="BA11" t="n">
         <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
@@ -4733,16 +4787,16 @@
         <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>2.611748728302913</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-3.323452098940658</v>
+        <v>0</v>
       </c>
       <c r="BH11" t="n">
-        <v>0</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="BI11" t="n">
-        <v>151051590.5669366</v>
+        <v>0</v>
       </c>
       <c r="BJ11" t="n">
         <v>0</v>
@@ -4751,13 +4805,13 @@
         <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>2.701532879489892</v>
+        <v>0</v>
       </c>
       <c r="BM11" t="n">
         <v>0</v>
       </c>
       <c r="BN11" t="n">
-        <v>0</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="BO11" t="n">
         <v>0</v>
@@ -4769,13 +4823,13 @@
         <v>0</v>
       </c>
       <c r="BR11" t="n">
-        <v>2.701532879489892</v>
+        <v>0</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4787,13 +4841,13 @@
         <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>2.701532879489892</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
         <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="CA11" t="n">
         <v>0</v>
@@ -4805,13 +4859,13 @@
         <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>2.701532879489892</v>
+        <v>0</v>
       </c>
       <c r="CE11" t="n">
         <v>0</v>
       </c>
       <c r="CF11" t="n">
-        <v>0</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="CG11" t="n">
         <v>0</v>
@@ -4823,13 +4877,13 @@
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>2.701532879489892</v>
+        <v>0</v>
       </c>
       <c r="CK11" t="n">
         <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>0</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="CM11" t="n">
         <v>0</v>
@@ -4841,13 +4895,13 @@
         <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>2.701532879489892</v>
+        <v>0</v>
       </c>
       <c r="CQ11" t="n">
         <v>0</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
@@ -4859,13 +4913,13 @@
         <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>2.701532879489892</v>
+        <v>0</v>
       </c>
       <c r="CW11" t="n">
         <v>0</v>
       </c>
       <c r="CX11" t="n">
-        <v>0</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="CY11" t="n">
         <v>0</v>
@@ -4877,13 +4931,13 @@
         <v>0</v>
       </c>
       <c r="DB11" t="n">
-        <v>2.701532879489892</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
       </c>
       <c r="DD11" t="n">
-        <v>0</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="DE11" t="n">
         <v>0</v>
@@ -4895,13 +4949,13 @@
         <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>2.701532879489892</v>
+        <v>0</v>
       </c>
       <c r="DI11" t="n">
         <v>0</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
@@ -4913,13 +4967,13 @@
         <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>2.701532879489892</v>
+        <v>0</v>
       </c>
       <c r="DO11" t="n">
         <v>0</v>
       </c>
       <c r="DP11" t="n">
-        <v>0</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="DQ11" t="n">
         <v>0</v>
@@ -4931,13 +4985,13 @@
         <v>0</v>
       </c>
       <c r="DT11" t="n">
-        <v>2.701532879489892</v>
+        <v>0</v>
       </c>
       <c r="DU11" t="n">
         <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>0</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="DW11" t="n">
         <v>0</v>
@@ -4949,13 +5003,13 @@
         <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>2.701532879489892</v>
+        <v>0</v>
       </c>
       <c r="EA11" t="n">
         <v>0</v>
       </c>
       <c r="EB11" t="n">
-        <v>0</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="EC11" t="n">
         <v>0</v>
@@ -4967,13 +5021,13 @@
         <v>0</v>
       </c>
       <c r="EF11" t="n">
-        <v>2.701532879489892</v>
+        <v>0</v>
       </c>
       <c r="EG11" t="n">
         <v>0</v>
       </c>
       <c r="EH11" t="n">
-        <v>0</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="EI11" t="n">
         <v>0</v>
@@ -4985,13 +5039,13 @@
         <v>0</v>
       </c>
       <c r="EL11" t="n">
-        <v>2.701532879489892</v>
+        <v>0</v>
       </c>
       <c r="EM11" t="n">
         <v>0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0</v>
+        <v>2.63568361187526</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
@@ -5000,6 +5054,12 @@
         <v>0</v>
       </c>
       <c r="EQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5011,91 +5071,91 @@
         <v>81.10619938789971</v>
       </c>
       <c r="C12" t="n">
-        <v>207.6138642779428</v>
+        <v>207.9915008934544</v>
       </c>
       <c r="D12" t="n">
-        <v>639691.6046787596</v>
+        <v>784663.938613158</v>
       </c>
       <c r="E12" t="n">
-        <v>11.63617956338811</v>
+        <v>10.84318867978849</v>
       </c>
       <c r="F12" t="n">
-        <v>82.52280382843679</v>
+        <v>87.32153736610965</v>
       </c>
       <c r="G12" t="n">
-        <v>4.201962007625716</v>
+        <v>4.866218873911767</v>
       </c>
       <c r="H12" t="n">
-        <v>71.86742519963958</v>
+        <v>81.42950810207022</v>
       </c>
       <c r="I12" t="n">
-        <v>88.81274593244673</v>
+        <v>81.45726212922443</v>
       </c>
       <c r="J12" t="n">
-        <v>74.08652919110526</v>
+        <v>67.9024223170745</v>
       </c>
       <c r="K12" t="n">
-        <v>98.95198115513688</v>
+        <v>98.36529441865473</v>
       </c>
       <c r="L12" t="n">
-        <v>-14.80824472976487</v>
+        <v>-10.31618422254832</v>
       </c>
       <c r="M12" t="n">
-        <v>-281225.2651653515</v>
+        <v>-182833.6998502549</v>
       </c>
       <c r="N12" t="n">
-        <v>42360513.19998988</v>
+        <v>53950804.36280795</v>
       </c>
       <c r="O12" t="n">
-        <v>352792824.9611438</v>
+        <v>415365269.7087636</v>
       </c>
       <c r="P12" t="n">
-        <v>335993166.6296607</v>
+        <v>395585971.1512034</v>
       </c>
       <c r="Q12" t="n">
-        <v>196951653.4308068</v>
+        <v>231453822.3952821</v>
       </c>
       <c r="R12" t="n">
-        <v>64690414.21185145</v>
+        <v>70313084.24076116</v>
       </c>
       <c r="S12" t="n">
-        <v>2210640687.198837</v>
+        <v>2702596798.696488</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>134337628.5404909</v>
+        <v>159034032.9103513</v>
       </c>
       <c r="V12" t="n">
-        <v>6050672.072229837</v>
+        <v>7706200.906755201</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>3.249302179855265</v>
+        <v>3.405814385154819</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.667991983107065</v>
+        <v>1.762303078007424</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.485005097986954</v>
+        <v>5.660891210712393</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.163700399151272</v>
+        <v>12.46324544689952</v>
       </c>
       <c r="AB12" t="n">
-        <v>3.006091746044097</v>
+        <v>2.213966183939482</v>
       </c>
       <c r="AC12" t="n">
-        <v>-7.485005097986954</v>
+        <v>34.99451427565568</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>2.981339378867163</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>-12.46324544689952</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
@@ -5104,16 +5164,16 @@
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>3.006091746044097</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>-7.485005097986954</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>2.981339378867163</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>-12.46324544689952</v>
       </c>
       <c r="AL12" t="n">
         <v>0</v>
@@ -5122,16 +5182,16 @@
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.006091746044097</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>-7.485005097986954</v>
+        <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>2.981339378867163</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>-12.46324544689952</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -5140,16 +5200,16 @@
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.006091746044097</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-7.485005097986954</v>
+        <v>0</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>2.981339378867163</v>
       </c>
       <c r="AW12" t="n">
-        <v>0</v>
+        <v>-12.46324544689952</v>
       </c>
       <c r="AX12" t="n">
         <v>0</v>
@@ -5158,16 +5218,16 @@
         <v>0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>3.006091746044097</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-7.485005097986954</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>2.981339378867163</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>-12.46324544689952</v>
       </c>
       <c r="BD12" t="n">
         <v>0</v>
@@ -5176,16 +5236,16 @@
         <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>2.915818512669305</v>
+        <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>-10.26323957351403</v>
+        <v>0</v>
       </c>
       <c r="BH12" t="n">
-        <v>0</v>
+        <v>2.981339378867163</v>
       </c>
       <c r="BI12" t="n">
-        <v>119473269.1657688</v>
+        <v>-12.46324544689952</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
@@ -5194,16 +5254,16 @@
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>3.006091746044097</v>
+        <v>0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-7.485005097986954</v>
+        <v>0</v>
       </c>
       <c r="BN12" t="n">
-        <v>0</v>
+        <v>2.981339378867163</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>-12.46324544689952</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
@@ -5212,16 +5272,16 @@
         <v>0</v>
       </c>
       <c r="BR12" t="n">
-        <v>3.006091746044097</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>-7.485005097986954</v>
+        <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>2.981339378867163</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>-12.46324544689952</v>
       </c>
       <c r="BV12" t="n">
         <v>0</v>
@@ -5230,16 +5290,16 @@
         <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>3.006091746044097</v>
+        <v>0</v>
       </c>
       <c r="BY12" t="n">
-        <v>-7.485005097986954</v>
+        <v>0</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>2.981339378867163</v>
       </c>
       <c r="CA12" t="n">
-        <v>0</v>
+        <v>-12.46324544689952</v>
       </c>
       <c r="CB12" t="n">
         <v>0</v>
@@ -5248,16 +5308,16 @@
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>3.006091746044097</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-7.485005097986954</v>
+        <v>0</v>
       </c>
       <c r="CF12" t="n">
-        <v>0</v>
+        <v>2.981339378867163</v>
       </c>
       <c r="CG12" t="n">
-        <v>0</v>
+        <v>-12.46324544689952</v>
       </c>
       <c r="CH12" t="n">
         <v>0</v>
@@ -5266,16 +5326,16 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>3.006091746044097</v>
+        <v>0</v>
       </c>
       <c r="CK12" t="n">
-        <v>-7.485005097986954</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>0</v>
+        <v>2.981339378867163</v>
       </c>
       <c r="CM12" t="n">
-        <v>0</v>
+        <v>-12.46324544689952</v>
       </c>
       <c r="CN12" t="n">
         <v>0</v>
@@ -5284,16 +5344,16 @@
         <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>3.006091746044097</v>
+        <v>0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-7.485005097986954</v>
+        <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>0</v>
+        <v>2.981339378867163</v>
       </c>
       <c r="CS12" t="n">
-        <v>0</v>
+        <v>-12.46324544689952</v>
       </c>
       <c r="CT12" t="n">
         <v>0</v>
@@ -5302,16 +5362,16 @@
         <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>3.006091746044097</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-7.485005097986954</v>
+        <v>0</v>
       </c>
       <c r="CX12" t="n">
-        <v>0</v>
+        <v>2.981339378867163</v>
       </c>
       <c r="CY12" t="n">
-        <v>0</v>
+        <v>-12.46324544689952</v>
       </c>
       <c r="CZ12" t="n">
         <v>0</v>
@@ -5320,16 +5380,16 @@
         <v>0</v>
       </c>
       <c r="DB12" t="n">
-        <v>3.006091746044097</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>-7.485005097986954</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>0</v>
+        <v>2.981339378867163</v>
       </c>
       <c r="DE12" t="n">
-        <v>0</v>
+        <v>-12.46324544689952</v>
       </c>
       <c r="DF12" t="n">
         <v>0</v>
@@ -5338,16 +5398,16 @@
         <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>3.006091746044097</v>
+        <v>0</v>
       </c>
       <c r="DI12" t="n">
-        <v>-7.485005097986954</v>
+        <v>0</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0</v>
+        <v>2.981339378867163</v>
       </c>
       <c r="DK12" t="n">
-        <v>0</v>
+        <v>-12.46324544689952</v>
       </c>
       <c r="DL12" t="n">
         <v>0</v>
@@ -5356,16 +5416,16 @@
         <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>3.006091746044097</v>
+        <v>0</v>
       </c>
       <c r="DO12" t="n">
-        <v>-7.485005097986954</v>
+        <v>0</v>
       </c>
       <c r="DP12" t="n">
-        <v>0</v>
+        <v>2.981339378867163</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0</v>
+        <v>-12.46324544689952</v>
       </c>
       <c r="DR12" t="n">
         <v>0</v>
@@ -5374,16 +5434,16 @@
         <v>0</v>
       </c>
       <c r="DT12" t="n">
-        <v>3.006091746044097</v>
+        <v>0</v>
       </c>
       <c r="DU12" t="n">
-        <v>-7.485005097986954</v>
+        <v>0</v>
       </c>
       <c r="DV12" t="n">
-        <v>0</v>
+        <v>2.981339378867163</v>
       </c>
       <c r="DW12" t="n">
-        <v>0</v>
+        <v>-12.46324544689952</v>
       </c>
       <c r="DX12" t="n">
         <v>0</v>
@@ -5392,16 +5452,16 @@
         <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>3.006091746044097</v>
+        <v>0</v>
       </c>
       <c r="EA12" t="n">
-        <v>-7.485005097986954</v>
+        <v>0</v>
       </c>
       <c r="EB12" t="n">
-        <v>0</v>
+        <v>2.981339378867163</v>
       </c>
       <c r="EC12" t="n">
-        <v>0</v>
+        <v>-12.46324544689952</v>
       </c>
       <c r="ED12" t="n">
         <v>0</v>
@@ -5410,16 +5470,16 @@
         <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>3.006091746044097</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-7.485005097986954</v>
+        <v>0</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>2.981339378867163</v>
       </c>
       <c r="EI12" t="n">
-        <v>0</v>
+        <v>-12.46324544689952</v>
       </c>
       <c r="EJ12" t="n">
         <v>0</v>
@@ -5428,21 +5488,27 @@
         <v>0</v>
       </c>
       <c r="EL12" t="n">
-        <v>3.006091746044097</v>
+        <v>0</v>
       </c>
       <c r="EM12" t="n">
-        <v>-7.485005097986954</v>
+        <v>0</v>
       </c>
       <c r="EN12" t="n">
-        <v>0</v>
+        <v>2.981339378867163</v>
       </c>
       <c r="EO12" t="n">
-        <v>0</v>
+        <v>-12.46324544689952</v>
       </c>
       <c r="EP12" t="n">
         <v>0</v>
       </c>
       <c r="EQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5454,61 +5520,61 @@
         <v>91.58834247123485</v>
       </c>
       <c r="C13" t="n">
-        <v>204.3625277355901</v>
+        <v>204.7342503735742</v>
       </c>
       <c r="D13" t="n">
-        <v>667072.172773305</v>
+        <v>818249.7231465048</v>
       </c>
       <c r="E13" t="n">
-        <v>10.21400667830802</v>
+        <v>9.517935073637332</v>
       </c>
       <c r="F13" t="n">
-        <v>84.63885611869122</v>
+        <v>89.56063893028143</v>
       </c>
       <c r="G13" t="n">
-        <v>4.779878407099566</v>
+        <v>5.535493771104813</v>
       </c>
       <c r="H13" t="n">
-        <v>73.96025554358161</v>
+        <v>83.80079307540666</v>
       </c>
       <c r="I13" t="n">
-        <v>95.57789273578247</v>
+        <v>91.48931743425871</v>
       </c>
       <c r="J13" t="n">
-        <v>84.26986861239401</v>
+        <v>77.23574406304014</v>
       </c>
       <c r="K13" t="n">
-        <v>86.14280820895574</v>
+        <v>85.0537002721987</v>
       </c>
       <c r="L13" t="n">
-        <v>-18.29418876885562</v>
+        <v>-13.44206324115694</v>
       </c>
       <c r="M13" t="n">
-        <v>-343123.9888329734</v>
+        <v>-231946.6470196763</v>
       </c>
       <c r="N13" t="n">
-        <v>47062430.14786243</v>
+        <v>61495941.12382555</v>
       </c>
       <c r="O13" t="n">
-        <v>371741347.7103307</v>
+        <v>434072258.7265434</v>
       </c>
       <c r="P13" t="n">
-        <v>354039378.7717435</v>
+        <v>413402151.1681366</v>
       </c>
       <c r="Q13" t="n">
-        <v>207898285.7223399</v>
+        <v>242184274.9733168</v>
       </c>
       <c r="R13" t="n">
-        <v>71295748.16968906</v>
+        <v>76840474.85214877</v>
       </c>
       <c r="S13" t="n">
-        <v>2598311654.858222</v>
+        <v>3176550147.102852</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>141354671.3488721</v>
+        <v>165725362.0478823</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -5517,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>2.963151444937604</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -5526,16 +5592,16 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.156967442867701</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.963151444937604</v>
+        <v>2.156094109013316</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>24.75940655532837</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -5547,13 +5613,13 @@
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>2.963151444937604</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
@@ -5565,13 +5631,13 @@
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.963151444937604</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
@@ -5583,13 +5649,13 @@
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.963151444937604</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
@@ -5601,13 +5667,13 @@
         <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2.963151444937604</v>
+        <v>0</v>
       </c>
       <c r="BA13" t="n">
         <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="BC13" t="n">
         <v>0</v>
@@ -5619,16 +5685,16 @@
         <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>2.868547845139978</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-3.192668399019968</v>
+        <v>0</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="BI13" t="n">
-        <v>140016598.9802757</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
@@ -5637,13 +5703,13 @@
         <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>2.963151444937604</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
         <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>0</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="BO13" t="n">
         <v>0</v>
@@ -5655,13 +5721,13 @@
         <v>0</v>
       </c>
       <c r="BR13" t="n">
-        <v>2.963151444937604</v>
+        <v>0</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5673,13 +5739,13 @@
         <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>2.963151444937604</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
         <v>0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="CA13" t="n">
         <v>0</v>
@@ -5691,13 +5757,13 @@
         <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>2.963151444937604</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
       </c>
       <c r="CF13" t="n">
-        <v>0</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="CG13" t="n">
         <v>0</v>
@@ -5709,13 +5775,13 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>2.963151444937604</v>
+        <v>0</v>
       </c>
       <c r="CK13" t="n">
         <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>0</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="CM13" t="n">
         <v>0</v>
@@ -5727,13 +5793,13 @@
         <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>2.963151444937604</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
         <v>0</v>
       </c>
       <c r="CR13" t="n">
-        <v>0</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="CS13" t="n">
         <v>0</v>
@@ -5745,13 +5811,13 @@
         <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>2.963151444937604</v>
+        <v>0</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
       </c>
       <c r="CX13" t="n">
-        <v>0</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="CY13" t="n">
         <v>0</v>
@@ -5763,13 +5829,13 @@
         <v>0</v>
       </c>
       <c r="DB13" t="n">
-        <v>2.963151444937604</v>
+        <v>0</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
       </c>
       <c r="DD13" t="n">
-        <v>0</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="DE13" t="n">
         <v>0</v>
@@ -5781,13 +5847,13 @@
         <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>2.963151444937604</v>
+        <v>0</v>
       </c>
       <c r="DI13" t="n">
         <v>0</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
@@ -5799,13 +5865,13 @@
         <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>2.963151444937604</v>
+        <v>0</v>
       </c>
       <c r="DO13" t="n">
         <v>0</v>
       </c>
       <c r="DP13" t="n">
-        <v>0</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="DQ13" t="n">
         <v>0</v>
@@ -5817,13 +5883,13 @@
         <v>0</v>
       </c>
       <c r="DT13" t="n">
-        <v>2.963151444937604</v>
+        <v>0</v>
       </c>
       <c r="DU13" t="n">
         <v>0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="DW13" t="n">
         <v>0</v>
@@ -5835,13 +5901,13 @@
         <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>2.963151444937604</v>
+        <v>0</v>
       </c>
       <c r="EA13" t="n">
         <v>0</v>
       </c>
       <c r="EB13" t="n">
-        <v>0</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="EC13" t="n">
         <v>0</v>
@@ -5853,13 +5919,13 @@
         <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>2.963151444937604</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
         <v>0</v>
       </c>
       <c r="EH13" t="n">
-        <v>0</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="EI13" t="n">
         <v>0</v>
@@ -5871,13 +5937,13 @@
         <v>0</v>
       </c>
       <c r="EL13" t="n">
-        <v>2.963151444937604</v>
+        <v>0</v>
       </c>
       <c r="EM13" t="n">
         <v>0</v>
       </c>
       <c r="EN13" t="n">
-        <v>0</v>
+        <v>2.865599552452766</v>
       </c>
       <c r="EO13" t="n">
         <v>0</v>
@@ -5886,6 +5952,12 @@
         <v>0</v>
       </c>
       <c r="EQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5894,27 +5966,27 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:AA1"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="AH1:AM1"/>
-    <mergeCell ref="AN1:AS1"/>
-    <mergeCell ref="AT1:AY1"/>
-    <mergeCell ref="AZ1:BE1"/>
-    <mergeCell ref="BF1:BK1"/>
-    <mergeCell ref="BL1:BQ1"/>
-    <mergeCell ref="BR1:BW1"/>
-    <mergeCell ref="BX1:CC1"/>
-    <mergeCell ref="CD1:CI1"/>
-    <mergeCell ref="CJ1:CO1"/>
-    <mergeCell ref="CP1:CU1"/>
-    <mergeCell ref="CV1:DA1"/>
-    <mergeCell ref="DB1:DG1"/>
-    <mergeCell ref="DH1:DM1"/>
-    <mergeCell ref="DN1:DS1"/>
-    <mergeCell ref="DT1:DY1"/>
-    <mergeCell ref="DZ1:EE1"/>
-    <mergeCell ref="EF1:EK1"/>
-    <mergeCell ref="EL1:EQ1"/>
+    <mergeCell ref="L1:AC1"/>
+    <mergeCell ref="AD1:AI1"/>
+    <mergeCell ref="AJ1:AO1"/>
+    <mergeCell ref="AP1:AU1"/>
+    <mergeCell ref="AV1:BA1"/>
+    <mergeCell ref="BB1:BG1"/>
+    <mergeCell ref="BH1:BM1"/>
+    <mergeCell ref="BN1:BS1"/>
+    <mergeCell ref="BT1:BY1"/>
+    <mergeCell ref="BZ1:CE1"/>
+    <mergeCell ref="CF1:CK1"/>
+    <mergeCell ref="CL1:CQ1"/>
+    <mergeCell ref="CR1:CW1"/>
+    <mergeCell ref="CX1:DC1"/>
+    <mergeCell ref="DD1:DI1"/>
+    <mergeCell ref="DJ1:DO1"/>
+    <mergeCell ref="DP1:DU1"/>
+    <mergeCell ref="DV1:EA1"/>
+    <mergeCell ref="EB1:EG1"/>
+    <mergeCell ref="EH1:EM1"/>
+    <mergeCell ref="EN1:ES1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
